--- a/BA lista za Hackatlon - test set1.xlsx
+++ b/BA lista za Hackatlon - test set1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Amdinocillin</t>
   </si>
@@ -93,18 +93,6 @@
   </si>
   <si>
     <t>naše 1</t>
-  </si>
-  <si>
-    <t>naše 2</t>
-  </si>
-  <si>
-    <t>naše 3</t>
-  </si>
-  <si>
-    <t>naše 4</t>
-  </si>
-  <si>
-    <t>naše 5</t>
   </si>
 </sst>
 </file>
@@ -546,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -558,7 +546,7 @@
     <col min="2" max="2" width="75.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -568,20 +556,8 @@
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4">
+    </row>
+    <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,12 +567,8 @@
       <c r="C2" s="4">
         <v>62.09</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.4">
+    </row>
+    <row r="3" spans="1:3" ht="14.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -606,12 +578,8 @@
       <c r="C3" s="4">
         <v>74.040000000000006</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4">
+    </row>
+    <row r="4" spans="1:3" ht="14.4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -621,12 +589,8 @@
       <c r="C4" s="4">
         <v>53.87</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4">
+    </row>
+    <row r="5" spans="1:3" ht="14.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -636,12 +600,8 @@
       <c r="C5" s="4">
         <v>74.86</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4">
+    </row>
+    <row r="6" spans="1:3" ht="14.4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -651,12 +611,8 @@
       <c r="C6" s="4">
         <v>38.549999999999997</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4">
+    </row>
+    <row r="7" spans="1:3" ht="14.4">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -666,12 +622,8 @@
       <c r="C7" s="4">
         <v>22.3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4">
+    </row>
+    <row r="8" spans="1:3" ht="14.4">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -681,12 +633,8 @@
       <c r="C8" s="4">
         <v>54.63</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4">
+    </row>
+    <row r="9" spans="1:3" ht="14.4">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -696,12 +644,8 @@
       <c r="C9" s="4">
         <v>66.06</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4">
+    </row>
+    <row r="10" spans="1:3" ht="14.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -711,12 +655,8 @@
       <c r="C10" s="4">
         <v>49.61</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4">
+    </row>
+    <row r="11" spans="1:3" ht="14.4">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -726,10 +666,6 @@
       <c r="C11" s="4">
         <v>55.43</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,18 +674,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,14 +912,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35C4E67-15C0-406B-95AB-A66F12719722}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBB65248-B28C-4FB5-A62A-B65E27316758}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -996,6 +924,14 @@
     <ds:schemaRef ds:uri="1e90b97f-f98f-46ec-af61-d68eab596442"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35C4E67-15C0-406B-95AB-A66F12719722}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
